--- a/500all/speech_level/speeches_CHRG-114hhrg98281.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98281.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400320</t>
   </si>
   <si>
-    <t>Joseph R. Pitts</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pitts. The subcommittee will come to order.    The chair will recognize himself for an opening statement. Today Medicaid is the world's largest health coverage program. Medicaid plays a critical role in our healthcare system, providing access to needed medical services and long-term care for some of our Nation's most vulnerable patients. The Congressional Budget Office estimates that Federal Medicaid expenditures will grow from $343 billion this year to $576 billion in 2025. At the same time, State expenditures have grown significantly, today accounting for more than 25 percent of state spending in fiscal year 2014.    Given the growing portion of the Federal budget dedicated to Medicaid and the fact that roughly one in five Americans may be served by the program in a given year, Congress has a responsibility--even a duty--to ensure that the program is safeguarded against waste, fraud, and abuse. And while there is never a perfect program, the status quo in Medicaid certainly can be improved. The increasing size, complexity and vulnerability of Medicaid have led the GAO to designate it a high-risk program that can too easily be subjected to fraud and abuse.    Both Federal and state governments play critical roles in oversight of program integrity efforts. And while I believe states are and should be treated as full partners in the program, the reality is that Congress has a duty to expect the best from states and take commonsense steps to help prevent fraud, waste, and abuse at systemic levels. After all, protecting the integrity of the Medicaid program is about ensuring the program is not only more accountable and transparent for taxpayers, it is about safeguarding program dollars and encouraging more meaningful access to care for patients who rely on the program. And that is why I am so pleased today to be discussing several bills that will help boost the integrity, oversight and accountability of the Medicaid program.    First, a bill to be introduced by Dr. Bucshon and some of his colleagues would fix a problem identified by the HHS inspector general ensuring that providers terminated in one state don't improperly bill the system or negatively impact patients in another state.</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Chairman Pitts.    And it is an honor to be able to sit on a subcommittee panel with you and introduce a Nico Gomez, our CEO of the Oklahoma Health Care Authority. Nico has brought in a unique approach to sometimes an agency that can be bogged down with bureaucracy by looking outside the box, by understanding that there is always a better way to do things. As he openly admits, it wasn't his idea but it was his ability to hire good people which we constantly refer to in the private sector as being extremely smart. And he brought in an outside look by being able to get people to enroll at a simpler pace by being online. At the same time, and most importantly, it gives people and it gives the agency the ability to check the eligibility of the participant at any given time with the touch of a button. Instead of having to go through and audit them to see if they are eligible since it is based on a month-to-month income basis, they can simply push the button and find out their eligibility.    I think it is something that not just Oklahoma can benefit from but the entire country can benefit from.    So, Mr. Gomez, it is an honor to have you in D.C., even though his flight didn't get in until 3 a.m. This morning. And as you can tell, he is still drinking coffee. So Nico thank you so much for being here.    Mr. Pitts, thank you so much for the ability to introduce him.</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman.    And good morning, and I thank our witnesses for being here today, even if you didn't arrive until 3 a.m.    Throughout its 50-year history, Medicaid has been an adaptable, efficient program that meets the healthcare needs of millions of children, pregnant women, people with disabilities, seniors, and low-income adults. Today Medicaid serves as a lifeline to nearly 72 million Americans who depend on the program for health coverage. The Affordable Care Act included the most significant changes to the program since its creation. It expanded coverage, made improvements to promote program integrity and transparency, and advance delivery system reform.    Thanks to these provisions, the uninsured rate is at a record low. The program continues to efficiently provide coverage to enrollees. Program integrity provisions of the ACA mark a shift from the traditional pay-and-chase model to a preventative approach in which fraudulent actors are kept out of the program before they commit fraud.    Today we are examining six Medicaid proposals, efforts that truly improve transparency and program integrity is something I think we all can support.    The Affordable Care Act took major steps to improve program integrity in Medicaid, including new protocols for screening of suppliers and providers and additional authority to terminate entities that commit fraud. These are significant steps forward, and more can be done to ensure these reforms are fully implemented.    We should also continue to examine other ways to further strengthen Medicaid for all beneficiaries so that dollars are spent on quality care without inappropriately limiting access.    While we hear from all six proposals during today's hearing, I want to take the opportunity to highlight two. Prior to the passage of the ACA, if a state terminated a provider's participation in its Medicaid program, the terminated provider could potentially participate in a program of a different state. In the case of Texas, they would probably come to Oklahoma and vice verse, leaving the system vulnerable to fraud and abuse. The ACA took steps to prevent this from happening, but OIG has identified weaknesses in that process.    One of the legislative proposals will build on the ACA with some technical changes. A proposal that would achieve its intent to further reduce waste, fraud and improve quality and safety in the Medicaid program is something, again, we can all support.    I am concerned that two bills under consideration would scale back Medicaid eligibility under the guise of closing loopholes. The Affordable Care Act establishes a streamlined, coordinated eligibility determination system for Medicaid and CHIP as well as premium tax credits and cost-sharing subsidies. The approach was designed so that people can qualify for the appropriate program without gaps or duplication and move between insurance programs when their incomes change.    H.R. 2339 would undermine this by requiring states to count lump-sum income as though it were income that the individual has received for up to 20 years after it is actually received. The bill is being described as a way to prevent people who win large lottery payouts from receiving Medicaid, but this is misleading. By counting all lump-sum income as monthly income, the overwhelming the majority of people it would affect all those who receive things like workers' compensation settlements, unemployment, and retroactive disability payments. If 2339 became law, a significant number of low-income Americans who receive lump sum could be inappropriately determined ineligible for Medicaid and lose access to their health insurance.    Coverage gaps due to temporary changes in income are bad for patients, providers, and health plans and ultimately is a waste of taxpayer dollars. This is a concept MACPAC has recommended in several reports to Congress. Gaps in coverage is an issue that I have been concerned about for years. For the last several Congresses I have worked with my colleague from Texas, Representative Joe Barton, to advance legislation to require 12-month continuous enrollment Medicaid and SCHIP. Proposals that ensure Federal and state taxpayer dollars are spent appropriately on delivering quality care and prevent fraud, waste, and abuse from occurring should be supported. Good program integrity holds all stakeholders accountable without unintentionally impeding the access.    I look forward to working with my colleagues on the committee to further strengthen the Medicaid program in key areas and build on the success. Again, I would like to thank our witnesses for being here today and look forward to the discussion on the legislative proposals under consideration.    And I yield back.</t>
   </si>
   <si>
@@ -103,18 +94,12 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman. I thank you for yielding time.    I appreciate the committee holding this hearing on efforts to strengthen Medicaid by reducing waste, fraud, and abuse. In doing so we can ensure the program's longevity and effectiveness.    Earlier this year, I introduced H.R. 2446, which would require states to put in place an electronic visit verification system for personal care services. Medicaid personal care services are becoming increasingly more important as the need for them continues to grow. However there is also growing concern about the high levels of improper payments in this area.    My bill will help address these concerns by requiring states to adopt an EVV system to verify the date, time, and site of visit as well as the provider of the services. This is critical to ensure that beneficiaries receive the services they need.    Many states already operate EVV systems, and they have seen a decrease in improper payments and significant cost savings for the states.    I want to thank the subcommittee for holding this hearing; certainly Chairman Pitts for including it in today's hearing. And by strengthening Medicaid, we can ensure those who need it can rely on it in the future.    And I would like to yield time to my friend from Florida, Mr. Bilirakis.</t>
   </si>
   <si>
     <t>412250</t>
   </si>
   <si>
-    <t>Gus M. Bilirakis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you. Thank you, sir, I appreciate it very much.    And thank you, Chairman Pitts, for holding the hearing.    Earlier this year, I, along with the delegates from all the territories, introduced the Medicaid and CHIP Territory Transparency and Information Act, H.R. 1570. CMS reports Medicaid CHIP data for all 50 states and the District of Columbia, but not the territories. Three months after introduction, CMS has started to report Puerto Rico data but not the other territories, and the level of data is less than what is reported for states.    My bill would require CMS to provide the same data for the territories as it does for the states. Puerto Rico's Medicaid program is facing some huge problems over the horizon. As a committee, we have to make some big policy decisions, and regardless of your policy views, we have to have all the data, all the information to understand the problem and exercise proper oversight over their program if we are to attempt to address these problems going forward.    Thank you very much for the time, and I yield back.</t>
   </si>
   <si>
@@ -127,9 +112,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman, for convening this hearing on the six pieces of legislation before our committee. I am pleased to see that some of the bills we are considering here today are true efforts to improve program integrity in Medicaid in ways that will strengthen the Medicaid program. That is a longstanding priority of mine, and there is still some technical work to be done, but the draft proposal that would build on authority given to CMS and states to terminate fraudulent providers from the Medicaid program is a worthwhile policy.    We need to do a better job in this area to make sure that providers eliminated in one state are no longer able to cross state lines and continue to be reimbursed for bad care for beneficiaries, and this legislation will do that. And I look forward to working with my colleagues on the proposal.    The proposed legislation under consideration today that would encourage our territories, like Puerto Rico, to invest in the creation of Medicaid fraud control units that over the long term bring dollars back to beneficiaries is a no-brainer.    I have to say, however, that another bill, H.R. 1570, requiring Web site information about the territories beyond Puerto Rico is a dramatic step, and I prefer to start first with the request to the agency for that information before enacting a law to that effect. While not harmful, this approach seems rigid and misguided.    I appreciate the interest in cracking down on fraud in the personal care services and home and community-based care space. Ensuring beneficiaries actually receive quality PCS to which they are entitled is an issue of serious importance and one that I look forward to working with this committee on further. HHS and the Office of the Inspector General have published an extensive body of work examining Medicaid personal care services and has found significant and persistent compliance payment and fraud vulnerabilities that we will hear about today. I have concerns about H.R. 2446, as drafted, however. I do believe this issue should be addressed and look forward to a thorough review and assessment of recommendations for improvement.    Unfortunately, we aren't considering just program integrity bills today. The ultimate test for all Medicaid legislation should be to determine if the proposal supports overarching Medicaid objectives to strengthen coverage, expand access to providers, improve health outcomes, and increase the quality of care for beneficiaries. I believe that the majority of what we are looking at for program integrity in Medicaid today achieves these goals. However, efforts to scale back eligibility in the Medicaid program in any way is not program integrity, and it is not closing loopholes. Proposals like the one we have here today that purports to address this so-called plight of lottery winners in Medicaid I think are completely unnecessary from a practical perspective. We have several checks in place and states already have the authority they need, but far more concerning is that H.R. 2339 is not about lottery winners at all; it is about undermining the streamlined coordinated eligibility approach the ACA established by allowing states to count lump-sum income that an individual may receive as though it were income that the individual is receiving for 1 to 20 years after actual receipt. And by ``lump sum,'' we are not talking about lottery winners; we are talking about uncompensated care settlement payments, Social Security disability back pay. We are talking about eliminating coverage for up to 20 years for a child on Medicaid because they have a parent that finally got a break with a little bit of income from selling the family home. Proposals like these that would undermine the coverage for millions of low-income individuals, including some of our most vulnerable children and seniors, are punitive to beneficiaries.    Reviewing our final bill here today, H.R. 1771, I am pleased that perhaps we can have a discussion about long-term care insurance or the lack thereof. I appreciate this legislation's effort to ensure spousal impoverishment protections remain when one spouse must enter a nursing home.    As many of you know, I was a strong supporter of the CLASS Act that has since been repealed, and I have called repeatedly for a real discussion about a long-term care benefit that a middle-income family can depend on to be there when they need it. We have no long-term care insurance in this country, and until we are ready to have a discussion about improving options in the long-term care insurance marketplace, I am concerned about changes to Medicaid eligibility in this space even for a very small amount of individuals.    Mr. Chairman, I have said repeatedly that the Medicaid program is the bedrock of the Nation's safety net. I take protecting Medicaid seriously, and I have used some of the good program integrity proposals we have to consider here today as efforts to advance that goal. However, Medicaid is the lifeline of nearly 72 million children, elderly, and low-income individuals depend on for health coverage. And I will never support a proposal that would take that coverage away.    So I want to thank you again for calling this hearing, and I look forward to working with you further to consider some of these initiatives, Mr. Chairman, and having a thoughtful discussion. Thank you.</t>
   </si>
   <si>
@@ -142,27 +124,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Hagg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hagg. Good morning, Chairman Pitts, Ranking Member Green, and other distinguished members of the committee. Thank you for the opportunity to testify about the Office of Inspector General's efforts to reduce fraud, waste, and abuse and to promote quality and safety in the Medicaid program.    Protecting the integrity of Medicaid takes on a heightened urgency as expenditures and the number of beneficiaries served continues to grow.    My testimony today focuses on three specific areas of concern that the OIG has identified to be problematic.    First, terminated providers continue to participate in and bill Medicaid. Second, there are inadequate safeguards for personal care services. And third, the U.S. territories lack Medicaid fraud control units.    Prior to the passage of the Affordable Care Act, if a state terminated a provider's participation in its Medicaid program, the provider could potentially participate in another state's Medicaid program, leaving the second state vulnerable to fraud, waste and abuse. To prevent this, states are now required to terminate a provider's participation if that provider is terminated in another state. The termination has to be for cause, for example, for reasons of fraud, integrity, or quality.    Through our work, we found significant problems. Specifically, we determined that not all states submitted data on terminated providers and that much of the data that was submitted did not relate to providers terminated for cause. We also found 12 percent of providers terminated in 2011 continued participating in other states' Medicaid programs.    To further complicate states' ability to terminate providers, many states do not require providers that participate via managed care to be directly enrolled in Medicaid. If a state has not directly enrolled a provider, it cannot not terminate that provider, and it may not even be aware that the provider is participating in its Medicaid program.    The OIG believes that CMS should, one, require states to report providers terminated for cause rather than leaving it as voluntary; two, ensure that the information reported is uniform, accurate and complete; and three, require state Medicaid programs to enroll all providers participating in Medicaid managed care.    Another problematic area within Medicaid is personal care services. These services allow many elderly people and those with disabilities to remain in their homes rather than being placed in a nursing facility. As more and more state Medicaid programs explore home care options, OIG believes it is critical that adequate safeguards exist to prevent fraud, waste and abuse in personal care services. Through our work, OIG discovered some payments for these services were improper because they were either not provided in accordance with state requirements, not supported by adequate documentation, billed during periods in which the beneficiaries were institutionalized, or were provided by attendants that failed to meet state qualifications.    Over the years, we have made a number of recommendations to CMS to address Medicaid's deficiencies within the delivery of personal care services, including requiring qualification standards for care attendants be consistent across states, requiring care attendants to be enrolled or registered with the states, and requiring dates, times and attendants' identities to be listed on Medicaid's claims. Currently, none of these recommendations have been implemented.    Another way the OIG helps protect the integrity of Medicaid is by overseeing the state Medicaid fraud control units. Fraud control units currently operate in 49 states and the District of Columbia, but none are in the five U.S. territories.    The major barrier to establishing fraud control units in the territories is the nature of Medicaid funding. Unlike Medicaid funding for the states, the territories receive a capped appropriation and routinely use the full amount appropriated. This becomes a disincentive to allocate scarce Medicaid dollars to the establishment and operation of fraud control units.    Legislation could remove the disincentive. This could be accomplished by exempting unit funding from the capped Medicaid appropriation. OIG believes that such a change would also be cost efficient, specifically in Puerto Rico, which has a total Medicaid enrollment of more than 1 million beneficiaries which is comparable to Medicaid enrollment of many medium-sized states.    In conclusion it is critical that we strengthenoversights to ensure that Medicaid funds are spent appropriately. Thank you for your interest in our work and for the opportunity to appear before you today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The chair now recognizes Mr. Gomez 5 minutes for your summarization.</t>
   </si>
   <si>
-    <t>Gomez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gomez. Good morning, Chairman Pitts and Ranking Member Green, and distinguished committee members, good morning. It is honor to share Oklahoma's perspectives and experiences on a critically important topic like program integrity in an ever changing healthcare delivery environment. It is important to note that this testimony is that of only one state's program. It is not made on behalf of any of the other states or associations. Equally important is acknowledgment that solutions offered here are not to the exclusive benefit of Oklahoma. This testimony highlights and reinforces the need for state flexibility rather than uniform mandates.    Oklahoma maintains a dedication of integrity in every aspect of our Medicaid program. Recent changes have included improving the process for determining member eligibility, provider contracting and enrollment, claims payments, medical necessity, asset verification, and service verification. Prior to the implementation of the Affordable Care Act, Oklahoma made investments toward developing the Nation's first fully automated, realtime online enrollment system. Currently, two-thirds of Oklahoma's applicants for Medicaid are received from a personal or public computer through our online system.    When added to the benefit of our community partners, more than 99 percent of our applications processed in the community are processed in realtime using a rules-based decision engine. In addition to relieving a tremendous administrative burden, this system allows for realtime enrollment, while strengthening the state's ability to verify reported information with various sources, including the Social Security Administration, Department of Homeland Security and the Oklahoma Employment Security Commission.    Oklahoma's pride is in its constant dedication to improving its program's integrity reflected in its payment error rate measurement. The Payment Error Rate Measurement Program is an audit conducted by CMS on a 3-year rolling average to measure the accuracy of payments made to Medicaid covered goods and services. The audit takes into consideration member eligibility, provider eligibility, and medical necessity. Oklahoma's most recent PERM audit identified a.24 percent error rate, .24 percent amongst the lowest of the 17 states with the same cycle. Most states are around 9 percent.    This success is a testament to the engaged provider services and training infrastructure as well as Oklahoma's continual audits to using PERM criteria in the interim during and between PERM audits, something we are very proud of.    Many of the issues being addressed in the upcoming hearings are issues that Oklahoma is facing or has attempted to address in the past.    One issue in particular we have attempted to address on our own and now with the help of Congressman Mullin we are able to address in H.R. 1771. Since its creation, the statutes and regulations governing the Medicaid program have been amended numerous times and now consist of complex, interrelated provisions that are often difficult to understand. One such area surrounds standards to prevent spousal impoverishment. Medicaid statutes allow the spouse of a Medicaid applicant for long-term care to keep a certain amount of his or her resources so that he or she is not required to become impoverished before their spouse can receive long-term care. Unfortunately, individuals are now using court-recognized loopholes to transfer significant resources to a spouse, transfers that would normally disqualify them from Medicaid.    States have denied applicants who are clearly above Medicaid's income standards or resource limit standards only to have the court order the approval of such applications as a result of certain estate-planning loopholes that they recognize are contrary to Medicaid's intended purpose but can only be corrected by Congress.    In an attempt to curtail the practice, Oklahoma denied such application using this loophole that resulted in the Morris v. Oklahoma Department of Health and Human Services. Morris is the seminal 10th Circuit decision which directly impacts not only Oklahoma but five other states in the circuit, but it also has been extended and relied upon in at least three other Federal circuits and several state courts.    The Court's rulings essentially permits a married couple to shelter potentially unlimited amounts of assets through the use of nonassignable, nontransferable annuities in order for the spouse in need of medical care to qualify for Medicaid. In reversing the district court, the court of appeals stated, although we understand the district court's concerns regarding the exploitation of what can only be described as a loophole in the Medicaid statutes, we conclude that the problem can only be addressed by Congress.    The passage of H.R. 1771 would be a needed step towards preserving shrinking resources that would help empower states to ensure those applicants truly in need can still access quality services. I would like to thank Congressman Markwayne Mullin for agreeing to working with the states remedying this and look forward to working together with the committee. And with that, I conclude my remarks and am happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The chair thanks the gentlemen.    I now recognize Ms. Riley 5 minutes for your summary.</t>
   </si>
   <si>
-    <t>Riley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Riley. Good morning, Chairman Pitts, Ranking Member Green, and members of the subcommittee.    I have served as the commissioner of MACPAC, the Medicaid and CHIP Payment and Access Commission, since its inception in 2010. As you know, MACPAC is a congressional advisory body charged with analyzing and reviewing Medicaid and CHIP policies and making recommendations to Congress, the Secretary, and the states on issues affecting these programs.    I am one of 17 members appointed by the GAO.    While I am also executive director of the National Academy for State Health Policy, my comments today solely reflect the work of MACPAC.    We very much appreciate the opportunity to be here today as the subcommittee considers changes to the Medicaid program. The Commission shares the subcommittee's interest in ensuring Federal and state taxpayer dollars are spent appropriately on delivering quality, necessary care, and preventing fraud, waste and abuse from taking place. When designed and implemented well, program integrity policies and procedures should ensure that eligibility decisions are made correctly, prospective and enrolled providers meet Federal and state participation requirements, services provided to enrollees are medically necessary and appropriate, and provider payments are made in the correct amount for the appropriate services.    The Commission has identified and shared with you through our reports to Congress a number of challenges associated with implementation of an effective and efficient Medicaid program integrity strategy, including overlap between Federal and state responsibilities, insufficient collaboration and information sharing among Federal agencies and the states, diffusion of authority among multiple Federal and state agencies, lack of information on the effectiveness of program integrity initiatives, and appropriate performance measures. We also identified concerns about lower Federal matching rates for state activities not directly related to fraud control; incomplete and outdated data; and few program integrity resources for delivery system models other than fee for service.    Specifically, the Commission recommended that the Secretary of HHS should collaborate with states to create feedback loops to simplify and streamline program integrity requirements, determine which current Federal program integrity initiatives are most effective, and take steps to eliminate programs that are redundant, outdated, or not cost-effective.    In addition, in order to enhance states' ability to detect and prevent fraud and abuse, the Commission has recommended that the Secretary should develop methods for better quantifying the effectiveness of program integrity activities. The Secretary should assess analytic tools for detecting and preventing fraud and abuse and promote the use of those tools that are most effective.    In addition, the Department should improve dissemination of best practices in program integrity and enhance program integrity training programs.    The measures before the subcommittee today also speak to other policy objectives of interest to the Commission, including simplification, transparency, and the alignment of policies across Federal health programs. Even so, I want to clarify that MACPAC has not reviewed nor expressed its views on the merits of the six specific initiatives that are the focus of today's hearing. My written statement provides technical comments on the potential implications of these proposals and issues that could be addressed as the subcommittee considers them.    Again, thank you very much for this opportunity to appear before the committee, and we would of course be happy to provide technical information from the staff or to answer questions today.</t>
   </si>
   <si>
@@ -328,9 +301,6 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. Thank you, Mr. Chairman. I will try to find a microphone where I can actually see the panelists. It may be difficult so I apologize if I am talking to you through someone. OK, Mr. Pallone brought up some points and actually used the debate to say the Republicans were not interested enough in long-term care.    Look, I haven't been on this committee nearly as long as Mr. Pallone. I will in no universe be able to spend the amount of years on the committee that Mr. Pallone has spent. But I do remember the Deficit Reduction Act of 2005. And we talked at that time about things we might do to get people interested in purchasing long-term care insurance who could afford it. And that was met with a lot of resistance. Now, I buy my health insurance in the individual market, and as a consequence, I pay for that with after-tax dollars. So those are really expensive dollars to have to spend.    And we do the exact same thing to people who want to provide long-term care insurance for themselves or their families. They pay for it with after-tax dollars, and there has been an absolute stonewall providing any type of recognition that this was a benefit or this was an activity that we would like to encourage people to do.    I can think of no more loving gift that a parent can give to their children than to carry long-term care insurance so that they, the parent, are not a burden to their children. Not everyone can afford long-term care insurance. I understand that. I pay for a policy myself. I understand how the policies are sometimes difficult to find, and, yes, they can be expensive. We have made that harder. We made that harder with the Affordable Care Act when the CLASS Act provision was thrown in at the last minute, very little consideration, no hearings, no evidence collected. And as a consequence, companies that were involved in providing long-term care insurance, because the assumption was then made that, hey, the Affordable Care Act is now taking care of long-term care insurance, when it wasn't, and we had to abandon the provisions of the CLASS Act because they were so bad and a classic insurance death spiral that now people are, in fact, left with less than they had before.    So I apologize. I didn't mean to go off topic, but I felt that there needed to be some counterbalance to that debate. Now since I am off-topic already let me stay of off topic.    Mr. Gomez, your Governor, Mary Fallin, who served with us here in the House of Representatives several years ago, and we miss her, but we do value her service to the people of Oklahoma as their chief executive, she signed a bill last March or April that was a requirement for prescription drug monitoring, the requirement for physicians to check against a database before prescribing certain drugs. We have had I don't know how many hearings this year in the Health and Oversight Subcommittees on prescription drug abuse.    And we go back and forth with the prescription drug monitoring issue. But you guys solved it in your State when Governor Fallin signed that into law--well, it will go into effect I guess in November. So you haven't quite solved it yet. But you are on the road to doing that. When Governor Fallin was at the National Governors Association meeting this summer and Secretary Burwell was addressing that meeting, she asked Secretary Burwell about, would it be possible to require that same type of prescription drug monitoring in Medicaid? And I guess my confusion then is why does being on Medicaid somehow exempt someone from prescription drug monitoring? Or is it that this is such a good idea, we ought to use it, since there is a Federal jurisdiction for Medicaid, that we should apply it in a Federal sense across the country? Can you clarify that for me?</t>
   </si>
   <si>
@@ -364,9 +334,6 @@
     <t>400062</t>
   </si>
   <si>
-    <t>Lois Capps</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Capps. Thank you, Chairman Pitts and also Ranking Member Green, for holding this hearing. And we have another topic that I think we need to address, I hope we can, in terms of long-term healthcare needs. But our Nation's Medicaid Program is a critical safety net for all Americans who know that if they fall on hard times, they will not need to sacrifice their access to health care. The Affordable Care Act took great strides in streamlining eligibility to the program, ensuring that it would be there for those who need it. And many of these bills would help--that we are addressing today--would help strengthen this program further. And they should be supported. But I want to focus on one which I have heard here today, H.R. 2339. And I believe that is not one of these that should be supported. I am curious about the situation of a young child whose parent may receive a lump-sum payment. So to be clear, and I think this is a common misperception, the parent receives the lump sum. But it is actually the child who is the Medicaid enrollee. And that is what the misconceptions are about. The Medicaid Program in this case is for the child. As we all know, the majority of Medicaid enrollees are children. And this is followed closely by low-income elderly and by disabled individuals, with a very small proportion of parents and low-income adults rounding out the program.    Ms. Riley, if a child's parent received a lump sum for any amount, $50,000 or whatever, and then, of course, that would be taxed I am sure, but the child is actually the Medicaid enrollee. Would the bill, as drafted, potentially count against the child's eligibility not just 1 month, but from then on? I will let you answer that question or address it.</t>
   </si>
   <si>
@@ -406,9 +373,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Mr. Chairman.    Thank you, panel, for being here.    As we are talking about the integrity here, one of the things we had a hearing on in our Oversight and Investigations subcommittee, which I chair, was the idea that Medicaid has $17.5 billion in improper payments and maintains a high threshold of tolerance on that. I want to talk about one area where it is not just going after those who are being fraudulent but a policy within Medicaid--and Mr. Hagg particularly, get your comments on this--in HHS' OIG report from March of this year, it was entitled ``Second Generation Antipsychotic Drug Use Among Medicaid-Enrolled Children: Quality-of-Care Concerns.'' I don't know if you are familiar with this report.</t>
   </si>
   <si>
@@ -448,9 +412,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Thank you, Mr. Chairman.    And good morning. Like many of the other members, I am very concerned with the unintended consequences of H.R. 2339. Medicaid eligibility was recently updated. And it was tied to the modified adjusted gross income measure to streamline eligibility and prevent gaps in coverage. Now, H.R. 2339 proposes a surgical change in the law to prevent lottery winners from maintaining Medicaid eligibility. But as currently drafted, children and other individuals may be affected by the change. In MACPAC, a relatively quick review of this legislation, can the Commission foresee problems with implementation and unintended consequences?</t>
   </si>
   <si>
@@ -508,9 +469,6 @@
     <t>412290</t>
   </si>
   <si>
-    <t>Leonard Lance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you very much. And good morning to you all. My last name is Lance. I am sitting here because I would like to interact with the distinguished panel. I don't know a lot about this issue, but I am certainly interested in it. And I come from a small family law practice where, on occasion, middle-aged children come into the law practice--my late father and my twin brother who practices law now--wishing to impoverish their parents. And we throw them out of the office. And this is an issue that concerns me greatly.    Now, am I right, did I hear you say, Ms. Riley, that 60 percent of all nursing home costs are through the Medicaid Program?</t>
   </si>
   <si>
@@ -601,9 +559,6 @@
     <t>400360</t>
   </si>
   <si>
-    <t>Janice D. Schakowsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schakowsky. Thank you, Mr. Chairman. We have talked about that personal care services may be an area that is vulnerable to fraud. And we must make sure that beneficiaries are receiving the services that they need at the right time in the right way. However, I have concerns about a penalty on the State's FMAP in an environment with Medicaid, where Medicaid Programs really are struggling right now administratively.    So, Ms. Riley, I know that MACPAC has not extensively studied this issue. But the Commission has looked at Medicaid administrative infrastructure. Could you tell us, what are some of the challenges that are being faced in this space?</t>
   </si>
   <si>
@@ -688,9 +643,6 @@
     <t>400616</t>
   </si>
   <si>
-    <t>G. K. Butterfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Butterfield. Thank you very much, Mr. Chairman. Thank you for holding this important hearing today.    Thank you to the witnesses for your attendance. Mr. Chairman, several weeks ago, we all celebrated the 50th anniversary of Medicaid. It was a great day. The benefits of Medicaid cannot be overstated. More than 72 million Americans rely on this program. Seventy-five percent of children who live in poverty in this country depend on Medicaid. Greater than 10 million school-aged children who live in poverty depend on Medicaid.    I represent, Mr. Chairman, one of the poorest congressional districts in the country. More than one out of every four people in North Carolina's first congressional district lives in poverty. One out of three of our children live in poverty. Medicaid is absolutely critical to my constituents. It is especially important to children in eastern North Carolina. As I child, I graduated from high school in 1965, the year of the enactment of Medicaid. And I recall, as a child, as a high school student, none of my classmates ever, ever, ever received any type of medical treatment or dental treatment because they couldn't afford it because 90 percent of our school students lived in poverty.    Democrats on this committee have done our part to strengthen Medicaid. I want all Americans to understand and appreciate the importance of Medicaid. The Affordable Care Act, which was drafted by this committee, it actually strengthened Medicaid. I remember the debate so well. It strengthened Medicaid's integrity by requiring regular risk-based grading of providers and suppliers. The ACA increased termination authority to ensure that malicious actors cannot participate in the program. And so it is abundantly clear that the ACA improved the integrity of the Medicaid Program across the board.    So I am interested in hearing more today about how to ensure that the ACA termination requirements are upheld. We want to uphold those in each and every state. I am also interested in protection Medicaid beneficiaries from potentially harmful changes to eligibility.    Mr. Hagg, Director Hagg, thank you. The integrity of the Medicaid Program is critical to ensure that beneficiaries are not taken advantage of. It is important that the Federal Government and our States work together to ensure Medicaid beneficiaries have access to care, reliable care. Can you describe, sir, whether the ACA strengthened the law to prevent providers terminated for cause from operating in other states?</t>
   </si>
   <si>
@@ -730,9 +682,6 @@
     <t>412427</t>
   </si>
   <si>
-    <t>Larry Bucshon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bucshon. Thank you, Mr. Chairman.    Along that same line, Mr. Hagg, we were talking about, Mr. Butterfield was talking about, does CMS require reporting into their system? Because from the information I have, at this point, over a year and a half after your recommendation, 4 \\1/2\\ years after the ACA requirement, CMS does not require such reporting of terminated providers. Is that true or not true?</t>
   </si>
   <si>
@@ -808,9 +757,6 @@
     <t>412212</t>
   </si>
   <si>
-    <t>John P. Sarbanes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sarbanes. Thank you, Mr. Chairman.    Ms. Riley, I apologize if the topic has been touched upon already or this question in particular. But I am interested in this, the bill that relates to someone converting assets to income through purchase of an annuity and the proposed change for how that might be handled. I gather that right now there is some protections that make the state the ultimate beneficiary of annuity proceeds in the case where that spouse dies. So there is a way for the state to benefit.    But now there is a proposal to I guess divide in half the proceeds during the period in which both spouses are alive, one being in the institution and the other being still at home. And I just wondered if you could speak to what you think, first, the incidence of, like, how frequently do you have a sense the situation is even arising where somebody is doing that annuity purchase under circumstances where there is a spouse that is institutionalized, and then within that universe, how often it is the case that the amounts we are talking about would be such that you could argue that they were trying to kind of waste or hide or redirect assets that would otherwise create a profile that would disqualify the spouse from institutional care?    And I would imagine, as well, that if somebody for the right reasons was converting assets to an income stream, that if you required that 50 percent of that be allocated to the institutionalized spouse, you might create a situation where the spouse that remains at home would actually qualify faster for institutional care based on their profile because there is a reduced amount of income available to them. So in terms of the income profile, you might actually be adding someone onto the state's burden who otherwise because of a smartly purchased annuity would be able to cover their expenses through that if they ultimately ended up in an institutionalized setting. So maybe you could comment on some of those issues.</t>
   </si>
   <si>
@@ -826,9 +772,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    I want to thank all the witnesses as well. We are delving into something. And I do think, regardless if there is some disagreement, we all do agree no one wants to see the system gamed. As Mr. Lance said, you know, he will throw somebody out of the office if they walk in to explicitly game the system.    But a couple other questions, I may delve into that a little bit, but my question, Mr. Gomez, the electronic verification system that--Oklahoma uses that as I understand?</t>
   </si>
   <si>
@@ -874,9 +817,6 @@
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you, Mr. Chairman.    Thank you, Mr. Green.    You know, nobody wants anyone to game the system. I certainly don't. And I think that we need to crack down if people are gaming the system for sure. But I think we have to be careful not to imply that somehow Medicaid needs to be denigrated because people are gaming the system. Medicaid is something that is very, very important. It is a critical safety net. There is some hostility around here toward it, and I think that we need to point out how important it is. There are 72 million Medicaid beneficiaries. There are many Americans who face economic hardship or sudden exorbitant healthcare costs. And I want to talk about my state of New York. We have made significant strides in our efforts to reform Medicaid, both in terms of cutting costs and improving the quality of care that patients receive. Governor Cuomo, in June, announced that over the past year, Medicaid spending per person in New York fell to a 13-year low. And during the same period, the Affordable Care Act allowed more than half a million additional New Yorkers to enroll in Medicaid, which is, I think, a significant step in the effort to reduce the number of Americans who are uninsured. New York has also had success boosting program integrity through the use of corporate integrity agreements. And these agreements are extended to providers that had compliance issues, an alternative to barring the said providers from the Medicaid Program and consequently triggering service shortages to beneficiaries. Corporate integrity agreements afford these providers opportunities to improve their compliance and set up mechanisms through which their compliance can be monitored more closely.    In 2013, corporate integrity agreements allowed New York's Medicaid Program to save over $58 million. That is significant. So, Ms. Riley, I would like to ask you this, I understand that MACPAC has recommended that CMS disseminate best practices concerning program integrity so that states may replicate other states' successes. Would New York's success, as I just mentioned, using corporate integrity agreements be considered a best practice worth emulating? And, more broadly, can you speak to the value of focusing more of our efforts on sharing best practices like the example I have outlined?</t>
   </si>
   <si>
@@ -916,9 +856,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you, Mr. Chairman. Thank you very much for holding this hearing. As always, these hearings are very enlightening. I came in today without any questions related to annuities and long-term care insurance, and now I have all kinds of questions.    But let me say this, Ms. Riley has indicated--and I didn't look it up--but she has been in this field for quite some time and the hope had been that long-term care insurance would help offset some of what Medicaid is having to pay. Folks are going to look at the money, when you are talking about putting a loved one into a nursing home, they are going to look at this as a tax avoidance situation, as opposed to tax evasion. A lot of folks today have said, this is immoral or nobody wants to game the system. The people are going to find a way to hang onto their assets if they can.    And one of the things we have to be careful of, and, Mr. Chairman, we may need to have a roundtable discussion among our members, we have to be careful that we don't go too far in a direction because people are going to figure out a way. And one of those ways is to go through a divorce, as long as the spouse who is the spouse in the nursing home or incapacitated in some way needing the care is competent. Because they want to pass assets on to their children, they are going to figure out a way. And if the only way left is divorce, they will divorce. They will reach a property settlement agreement. They will transfer all the money to the healthy spouse. And then the healthy spouse will start working on ways to get that to the children. People will do that.    So this is a complicated issue. It is not one where we need folks on each side of the aisle pointing the finger at the other side of the aisle. We need to see if we can't come up with a new paradigm, a new way to do this.    I don't have the answer, Mr. Chairman. But I have heard a lot of concern on a lot of issues regarding promissory notes, et cetera, annuities. But we need to figure out a way that we can make it so that it is affordable for the average American family to have a loved one in long-term care without losing everything they have worked for 45 or 50 years. And they are going to want to pass it on to their kids. So as long as even the incapacitated party is competent, they are going to figure out a way. And they are going to game, if you want to call it gaming the system, they are going to game the system because in the long-term, it is better off for their loved ones. So I don't know the answer. But let's not think there is a quick and easy solution.    And I think, Ms. Riley, you would agree with that.</t>
   </si>
   <si>
@@ -940,9 +877,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman.    To the panel, thank you all so much for being here and for helping us understand these complex issues. I am a former United States Attorney and so I have worked with my state's Medicaid Fraud Control Unit, I think we called it MFCU is the acronym that I recall. It has been a few years, but I understand all too well the nationwide prevalence of the problem of Medicaid fraud, and I am encouraged by the fact that the committee is taking up the issues of program integrity.    I also am very pleased that Chairman Pitts has introduced, and I am working with him, on H.R. 3444, the Medicaid and CHIP Territory Fraud Prevention Act because it is important that our territories also have Medicaid Fraud Control Units. And I want to dive into that a little bit further.    Can you, Mr. Hagg, really just talk with us, and I know Chairman Pitts started out by talking about the units and how they are funded and so forth, but can you give us, based on your experience with the Fraud Control Units in the states, can you explain further why this is a wise investment of our Federal dollars to make sure that the territories set up Medicaid Fraud Control Units?</t>
   </si>
   <si>
@@ -998,9 +932,6 @@
   </si>
   <si>
     <t>412457</t>
-  </si>
-  <si>
-    <t>Renee L. Ellmers</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Ellmers. Thank you, Mr. Chairman.    And thank you to our panel, and I will just start off by saying I have a few questions here, and I apologize for not being here for the full committee. It is getting back to town, and being the third day back, we are all pretty busy, and I had some other issues I had to take care of. But I want to start, Mr. Gomez, asking you about the Deficit Reduction Act, so I guess my point is if I ask you a question that has already been presented, please indulge me because I apologize for the redundancy.    But in the Deficit Reduction Act of 2005, implemented new policies that intended to try to close the loopholes related to the use of annuities as a Medicaid planning device. However, based on the testimony that has taken place today and just what I have listened to, it obviously has not achieved that goal.    Can you please explain what the DRA did and why that has not sufficiently closed the loopholes?</t>
@@ -1429,11 +1360,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1455,11 +1384,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1481,11 +1408,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1507,11 +1432,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1533,11 +1456,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1559,11 +1480,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1585,11 +1504,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1609,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1637,11 +1552,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1661,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1689,11 +1600,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1713,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1739,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1765,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>29</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1793,11 +1696,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1817,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1845,11 +1744,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1871,11 +1768,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1895,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1923,11 +1816,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1947,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1975,11 +1864,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1999,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2027,11 +1912,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2051,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
         <v>42</v>
-      </c>
-      <c r="H26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2079,11 +1960,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2103,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2131,11 +2008,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2155,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2183,11 +2056,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2207,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2235,11 +2104,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2259,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2287,11 +2152,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2311,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2339,11 +2200,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2363,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2391,11 +2248,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2415,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2443,11 +2296,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2467,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2493,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2519,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2545,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2571,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2597,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2623,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2649,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2675,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2701,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2727,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2753,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2779,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2805,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2831,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2857,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2883,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2911,11 +2728,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2935,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2963,11 +2776,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2987,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3013,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3039,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3065,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3091,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3117,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G67" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3143,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3171,11 +2968,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3195,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3221,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3247,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3273,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3299,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3325,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
-      </c>
-      <c r="G75" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3351,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3379,11 +3160,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3403,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
-      </c>
-      <c r="G78" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3429,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3455,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
-      </c>
-      <c r="G80" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3481,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3507,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
-      </c>
-      <c r="G82" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3533,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G83" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3559,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3585,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
-      </c>
-      <c r="G85" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3611,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>103</v>
-      </c>
-      <c r="G86" t="s">
-        <v>104</v>
-      </c>
-      <c r="H86" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3639,11 +3400,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3663,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>115</v>
-      </c>
-      <c r="G88" t="s">
-        <v>116</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3689,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G89" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3715,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>115</v>
-      </c>
-      <c r="G90" t="s">
-        <v>116</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3741,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
-      </c>
-      <c r="G91" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3767,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>115</v>
-      </c>
-      <c r="G92" t="s">
-        <v>116</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3793,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
-      </c>
-      <c r="G93" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3819,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>115</v>
-      </c>
-      <c r="G94" t="s">
-        <v>116</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3845,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3871,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>115</v>
-      </c>
-      <c r="G96" t="s">
-        <v>116</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3897,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
-      </c>
-      <c r="G97" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3923,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>115</v>
-      </c>
-      <c r="G98" t="s">
+        <v>105</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
         <v>116</v>
-      </c>
-      <c r="H98" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3951,11 +3688,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3975,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>129</v>
-      </c>
-      <c r="G100" t="s">
-        <v>130</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4001,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
-      </c>
-      <c r="G101" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4027,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
-      </c>
-      <c r="G102" t="s">
-        <v>130</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4053,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
-      </c>
-      <c r="G103" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4079,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>129</v>
-      </c>
-      <c r="G104" t="s">
-        <v>130</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4105,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
-      </c>
-      <c r="G105" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4131,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>129</v>
-      </c>
-      <c r="G106" t="s">
-        <v>130</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4157,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
-      </c>
-      <c r="G107" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4183,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G108" t="s">
-        <v>130</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4209,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
-      </c>
-      <c r="G109" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4235,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
+        <v>118</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
         <v>129</v>
-      </c>
-      <c r="G110" t="s">
-        <v>130</v>
-      </c>
-      <c r="H110" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4263,11 +3976,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4287,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>143</v>
-      </c>
-      <c r="G112" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4313,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
-      </c>
-      <c r="G113" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4339,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>143</v>
-      </c>
-      <c r="G114" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4365,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
-      </c>
-      <c r="G115" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4391,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>143</v>
-      </c>
-      <c r="G116" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4417,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
-      </c>
-      <c r="G117" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4443,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>143</v>
-      </c>
-      <c r="G118" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4469,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
-      </c>
-      <c r="G119" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4495,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>143</v>
-      </c>
-      <c r="G120" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4521,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
-      </c>
-      <c r="G121" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4547,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>143</v>
-      </c>
-      <c r="G122" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4573,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
-      </c>
-      <c r="G123" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4599,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>143</v>
-      </c>
-      <c r="G124" t="s">
+        <v>131</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
         <v>144</v>
-      </c>
-      <c r="H124" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4625,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
-      </c>
-      <c r="G125" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4651,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>143</v>
-      </c>
-      <c r="G126" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4677,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
-      </c>
-      <c r="G127" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4703,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>143</v>
-      </c>
-      <c r="G128" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4731,11 +4408,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4755,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>163</v>
-      </c>
-      <c r="G130" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4781,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
-      </c>
-      <c r="G131" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4807,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>163</v>
-      </c>
-      <c r="G132" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4833,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
-      </c>
-      <c r="G133" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4859,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>163</v>
-      </c>
-      <c r="G134" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4885,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
-      </c>
-      <c r="G135" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4911,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>163</v>
-      </c>
-      <c r="G136" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4937,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
-      </c>
-      <c r="G137" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4963,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>163</v>
-      </c>
-      <c r="G138" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4989,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
-      </c>
-      <c r="G139" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5015,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>163</v>
-      </c>
-      <c r="G140" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5041,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
-      </c>
-      <c r="G141" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5067,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>163</v>
-      </c>
-      <c r="G142" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5093,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
-      </c>
-      <c r="G143" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5119,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>163</v>
-      </c>
-      <c r="G144" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5145,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
-      </c>
-      <c r="G145" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5171,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>163</v>
-      </c>
-      <c r="G146" t="s">
+        <v>150</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
         <v>164</v>
-      </c>
-      <c r="H146" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5197,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
-      </c>
-      <c r="G147" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5223,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>163</v>
-      </c>
-      <c r="G148" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5249,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
-      </c>
-      <c r="G149" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5275,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>163</v>
-      </c>
-      <c r="G150" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5301,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
-      </c>
-      <c r="G151" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5327,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>163</v>
-      </c>
-      <c r="G152" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5353,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
-      </c>
-      <c r="G153" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5379,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>163</v>
-      </c>
-      <c r="G154" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5405,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
-      </c>
-      <c r="G155" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5431,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>163</v>
-      </c>
-      <c r="G156" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5457,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
-      </c>
-      <c r="G157" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5483,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>163</v>
-      </c>
-      <c r="G158" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5509,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
-      </c>
-      <c r="G159" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5535,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>163</v>
-      </c>
-      <c r="G160" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5561,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
-      </c>
-      <c r="G161" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5587,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>163</v>
-      </c>
-      <c r="G162" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5615,11 +5224,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5639,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>194</v>
-      </c>
-      <c r="G164" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5665,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
-      </c>
-      <c r="G165" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5691,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>194</v>
-      </c>
-      <c r="G166" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5717,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
-      </c>
-      <c r="G167" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5743,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>194</v>
-      </c>
-      <c r="G168" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5769,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
-      </c>
-      <c r="G169" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5795,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>194</v>
-      </c>
-      <c r="G170" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5821,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
-      </c>
-      <c r="G171" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5847,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>194</v>
-      </c>
-      <c r="G172" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5873,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
-      </c>
-      <c r="G173" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5899,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>194</v>
-      </c>
-      <c r="G174" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5927,11 +5512,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5951,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
-      </c>
-      <c r="G176" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5977,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
-      </c>
-      <c r="G177" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6003,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
-      </c>
-      <c r="G178" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6029,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
-      </c>
-      <c r="G179" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6055,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
-      </c>
-      <c r="G180" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6081,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
-      </c>
-      <c r="G181" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6107,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
-      </c>
-      <c r="G182" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6133,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
-      </c>
-      <c r="G183" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6159,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
-      </c>
-      <c r="G184" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6185,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
-      </c>
-      <c r="G185" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6211,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
-      </c>
-      <c r="G186" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6237,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
-      </c>
-      <c r="G187" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6263,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
-      </c>
-      <c r="G188" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6289,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>28</v>
-      </c>
-      <c r="G189" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6317,11 +5872,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6341,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>223</v>
-      </c>
-      <c r="G191" t="s">
-        <v>224</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6367,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
-      </c>
-      <c r="G192" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6393,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>223</v>
-      </c>
-      <c r="G193" t="s">
-        <v>224</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6419,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
-      </c>
-      <c r="G194" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6445,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>223</v>
-      </c>
-      <c r="G195" t="s">
-        <v>224</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6471,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
-      </c>
-      <c r="G196" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6497,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>223</v>
-      </c>
-      <c r="G197" t="s">
-        <v>224</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6523,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
-      </c>
-      <c r="G198" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6549,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>223</v>
-      </c>
-      <c r="G199" t="s">
-        <v>224</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6575,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
-      </c>
-      <c r="G200" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6601,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>223</v>
-      </c>
-      <c r="G201" t="s">
-        <v>224</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6629,11 +6160,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6653,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>237</v>
-      </c>
-      <c r="G203" t="s">
-        <v>238</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6679,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
-      </c>
-      <c r="G204" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6705,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>237</v>
-      </c>
-      <c r="G205" t="s">
-        <v>238</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6731,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
-      </c>
-      <c r="G206" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6757,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>237</v>
-      </c>
-      <c r="G207" t="s">
-        <v>238</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6783,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
-      </c>
-      <c r="G208" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6809,13 +6326,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>237</v>
-      </c>
-      <c r="G209" t="s">
-        <v>238</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6835,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
-      </c>
-      <c r="G210" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6861,13 +6374,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>237</v>
-      </c>
-      <c r="G211" t="s">
-        <v>238</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6887,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
-      </c>
-      <c r="G212" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6913,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>237</v>
-      </c>
-      <c r="G213" t="s">
-        <v>238</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6939,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
-      </c>
-      <c r="G214" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6965,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>237</v>
-      </c>
-      <c r="G215" t="s">
-        <v>238</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6991,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>41</v>
-      </c>
-      <c r="G216" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7017,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>237</v>
-      </c>
-      <c r="G217" t="s">
-        <v>238</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7043,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
-      </c>
-      <c r="G218" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7069,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>237</v>
-      </c>
-      <c r="G219" t="s">
+        <v>221</v>
+      </c>
+      <c r="G219" t="s"/>
+      <c r="H219" t="s">
         <v>238</v>
-      </c>
-      <c r="H219" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7095,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
-      </c>
-      <c r="G220" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7121,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>237</v>
-      </c>
-      <c r="G221" t="s">
-        <v>238</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7147,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
-      </c>
-      <c r="G222" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7173,13 +6662,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>237</v>
-      </c>
-      <c r="G223" t="s">
-        <v>238</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7199,13 +6686,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>41</v>
-      </c>
-      <c r="G224" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7225,13 +6710,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>237</v>
-      </c>
-      <c r="G225" t="s">
-        <v>238</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7253,11 +6736,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7277,13 +6758,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>263</v>
-      </c>
-      <c r="G227" t="s">
-        <v>264</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7303,13 +6782,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
-      </c>
-      <c r="G228" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7329,13 +6806,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>263</v>
-      </c>
-      <c r="G229" t="s">
-        <v>264</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7357,11 +6832,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7381,13 +6854,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>269</v>
-      </c>
-      <c r="G231" t="s">
-        <v>270</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7407,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
-      </c>
-      <c r="G232" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7433,13 +6902,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>269</v>
-      </c>
-      <c r="G233" t="s">
-        <v>270</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7459,13 +6926,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
-      </c>
-      <c r="G234" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7485,13 +6950,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>269</v>
-      </c>
-      <c r="G235" t="s">
-        <v>270</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7511,13 +6974,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>41</v>
-      </c>
-      <c r="G236" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7537,13 +6998,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>269</v>
-      </c>
-      <c r="G237" t="s">
-        <v>270</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7563,13 +7022,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>41</v>
-      </c>
-      <c r="G238" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7589,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>269</v>
-      </c>
-      <c r="G239" t="s">
-        <v>270</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7615,13 +7070,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
-      </c>
-      <c r="G240" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7641,13 +7094,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>269</v>
-      </c>
-      <c r="G241" t="s">
-        <v>270</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7667,13 +7118,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>41</v>
-      </c>
-      <c r="G242" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7693,13 +7142,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>269</v>
-      </c>
-      <c r="G243" t="s">
-        <v>270</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7721,11 +7168,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7745,13 +7190,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>285</v>
-      </c>
-      <c r="G245" t="s">
-        <v>286</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7771,13 +7214,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>41</v>
-      </c>
-      <c r="G246" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7797,13 +7238,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>285</v>
-      </c>
-      <c r="G247" t="s">
-        <v>286</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7823,13 +7262,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
-      </c>
-      <c r="G248" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7849,13 +7286,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>285</v>
-      </c>
-      <c r="G249" t="s">
-        <v>286</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7875,13 +7310,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>41</v>
-      </c>
-      <c r="G250" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7901,13 +7334,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>285</v>
-      </c>
-      <c r="G251" t="s">
-        <v>286</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7927,13 +7358,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
-      </c>
-      <c r="G252" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7953,13 +7382,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>285</v>
-      </c>
-      <c r="G253" t="s">
-        <v>286</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7979,13 +7406,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>41</v>
-      </c>
-      <c r="G254" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8005,13 +7430,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>285</v>
-      </c>
-      <c r="G255" t="s">
-        <v>286</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8033,11 +7456,9 @@
       <c r="F256" t="s">
         <v>11</v>
       </c>
-      <c r="G256" t="s">
-        <v>12</v>
-      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8057,13 +7478,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>299</v>
-      </c>
-      <c r="G257" t="s">
-        <v>300</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8083,13 +7502,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>41</v>
-      </c>
-      <c r="G258" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8109,13 +7526,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>299</v>
-      </c>
-      <c r="G259" t="s">
-        <v>300</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8135,13 +7550,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>41</v>
-      </c>
-      <c r="G260" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8161,13 +7574,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>299</v>
-      </c>
-      <c r="G261" t="s">
-        <v>300</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8189,11 +7600,9 @@
       <c r="F262" t="s">
         <v>11</v>
       </c>
-      <c r="G262" t="s">
-        <v>12</v>
-      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8213,13 +7622,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>307</v>
-      </c>
-      <c r="G263" t="s">
-        <v>308</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8239,13 +7646,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>41</v>
-      </c>
-      <c r="G264" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8265,13 +7670,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>307</v>
-      </c>
-      <c r="G265" t="s">
-        <v>308</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8291,13 +7694,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>41</v>
-      </c>
-      <c r="G266" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8317,13 +7718,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>307</v>
-      </c>
-      <c r="G267" t="s">
-        <v>308</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8343,13 +7742,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>41</v>
-      </c>
-      <c r="G268" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8369,13 +7766,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>307</v>
-      </c>
-      <c r="G269" t="s">
-        <v>308</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8395,13 +7790,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>41</v>
-      </c>
-      <c r="G270" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8421,13 +7814,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>307</v>
-      </c>
-      <c r="G271" t="s">
-        <v>308</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8447,13 +7838,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>41</v>
-      </c>
-      <c r="G272" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8473,13 +7862,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>307</v>
-      </c>
-      <c r="G273" t="s">
-        <v>308</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8499,13 +7886,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>41</v>
-      </c>
-      <c r="G274" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8525,13 +7910,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>307</v>
-      </c>
-      <c r="G275" t="s">
-        <v>308</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8551,13 +7934,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>41</v>
-      </c>
-      <c r="G276" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8577,13 +7958,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>307</v>
-      </c>
-      <c r="G277" t="s">
-        <v>308</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8603,13 +7982,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>41</v>
-      </c>
-      <c r="G278" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8629,13 +8006,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>307</v>
-      </c>
-      <c r="G279" t="s">
-        <v>308</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8657,11 +8032,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>12</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8681,13 +8054,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>327</v>
-      </c>
-      <c r="G281" t="s">
-        <v>328</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8707,13 +8078,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
-      </c>
-      <c r="G282" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8733,13 +8102,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>327</v>
-      </c>
-      <c r="G283" t="s">
-        <v>328</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8759,13 +8126,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>41</v>
-      </c>
-      <c r="G284" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8785,13 +8150,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>327</v>
-      </c>
-      <c r="G285" t="s">
-        <v>328</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8811,13 +8174,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>41</v>
-      </c>
-      <c r="G286" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8837,13 +8198,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>327</v>
-      </c>
-      <c r="G287" t="s">
-        <v>328</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8863,13 +8222,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>41</v>
-      </c>
-      <c r="G288" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8889,13 +8246,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>327</v>
-      </c>
-      <c r="G289" t="s">
-        <v>328</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8917,11 +8272,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
